--- a/Visualizations/Combined_results.xlsx
+++ b/Visualizations/Combined_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/saumitrd_ntnu_no/Documents/ntnu/PhD/Workfile/Cellular_Automata_RD/Visualizations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdw\OneDrive - NTNU\ntnu\PhD\Workfile\Cellular_Automata_RD\Visualizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="514" documentId="8_{283695B4-5A52-4FAA-8B0A-0DB00A517A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E05EDBD0-4A53-4F1C-8297-D78273746B14}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C625569C-488D-4BEA-8E34-F40BF6F67833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{781B9356-B2E0-4405-B1ED-3D62328568D5}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="23640" xr2:uid="{781B9356-B2E0-4405-B1ED-3D62328568D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="31">
   <si>
     <t>SSIM</t>
   </si>
@@ -696,7 +696,9 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{97F6A068-AFA4-4E0E-9EE3-1AA5BA4D863A}">
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
+            <cx:binning intervalClosed="r">
+              <cx:binCount val="5"/>
+            </cx:binning>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
@@ -3302,7 +3304,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="362682" y="6215062"/>
-              <a:ext cx="6216895" cy="3195638"/>
+              <a:ext cx="6231549" cy="3195638"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3333,10 +3335,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3688,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4BE717-9CAF-4EE7-AF3D-EF76ADC501E0}">
   <dimension ref="M7:BA607"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5612,6 +5610,9 @@
       </c>
     </row>
     <row r="33" spans="13:53" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>3</v>
+      </c>
       <c r="AD33" t="str">
         <f>'Combined_results'!B627</f>
         <v>snr1</v>
